--- a/Standardization/term_time_and_direction_switches.xlsx
+++ b/Standardization/term_time_and_direction_switches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Master Project\wise-dag\Standardization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55015CC9-24A7-4E66-8F68-C74E3DA01F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E8861-89F9-4E50-87D8-278030496053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{1B1D6425-88FD-42FC-82B9-F7ED3685AD97}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{1B1D6425-88FD-42FC-82B9-F7ED3685AD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="312">
   <si>
     <t>term</t>
   </si>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247059F5-87D4-473B-B529-D3C8FC0596EF}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2462,85 +2462,82 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="C215" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -2646,9 +2643,6 @@
       <c r="B242">
         <v>2</v>
       </c>
-      <c r="C242" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
@@ -2707,9 +2701,6 @@
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
       <c r="C253" t="s">
         <v>311</v>
       </c>
@@ -2946,6 +2937,9 @@
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>294</v>
+      </c>
+      <c r="C295" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">

--- a/Standardization/term_time_and_direction_switches.xlsx
+++ b/Standardization/term_time_and_direction_switches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Master Project\wise-dag\Standardization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E8861-89F9-4E50-87D8-278030496053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C022A7-6E60-4648-891D-24225D761CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{1B1D6425-88FD-42FC-82B9-F7ED3685AD97}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{1B1D6425-88FD-42FC-82B9-F7ED3685AD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="312">
   <si>
     <t>term</t>
   </si>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247059F5-87D4-473B-B529-D3C8FC0596EF}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="C295" sqref="C295"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="J229" sqref="J229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2701,9 +2701,6 @@
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="C253" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">

--- a/Standardization/term_time_and_direction_switches.xlsx
+++ b/Standardization/term_time_and_direction_switches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Master Project\wise-dag\Standardization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C022A7-6E60-4648-891D-24225D761CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6547B3-1B6D-40AB-8C39-31210954AA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{1B1D6425-88FD-42FC-82B9-F7ED3685AD97}"/>
+    <workbookView xWindow="1470" yWindow="-20130" windowWidth="28800" windowHeight="15105" xr2:uid="{1B1D6425-88FD-42FC-82B9-F7ED3685AD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="312">
   <si>
     <t>term</t>
   </si>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247059F5-87D4-473B-B529-D3C8FC0596EF}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="J229" sqref="J229"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2803,22 +2803,22 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -2826,12 +2826,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -2839,12 +2839,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -2868,32 +2868,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C283" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>287</v>
       </c>
